--- a/public/assets/documents/fo-inscription-interclasse.xlsx
+++ b/public/assets/documents/fo-inscription-interclasse.xlsx
@@ -6,7 +6,7 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +779,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
